--- a/sleep_data.xlsx
+++ b/sleep_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Duration (ms)</t>
+          <t>Duration (hours)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -483,523 +483,208 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25980000</v>
+        <v>5.77</v>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-03-20T09:02:00.000</t>
+          <t>2024-03-10T12:14:00.000</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="G2" t="n">
         <v>61</v>
       </c>
       <c r="H2" t="n">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-03-20T01:49:00.000</t>
+          <t>2024-03-10T06:28:00.000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6120000</v>
+        <v>7.5</v>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-03-19T21:10:00.000</t>
+          <t>2024-03-08T08:02:00.000</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>90</v>
+        <v>381</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>102</v>
+        <v>450</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-03-19T19:28:00.000</t>
+          <t>2024-03-08T00:31:30.000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25380000</v>
+        <v>4.38</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-03-19T08:50:30.000</t>
+          <t>2024-03-07T08:46:00.000</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>356</v>
+        <v>218</v>
       </c>
       <c r="G4" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
-        <v>423</v>
+        <v>263</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-03-19T01:47:00.000</t>
+          <t>2024-03-07T04:22:30.000</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27480000</v>
+        <v>1.05</v>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-03-18T08:54:00.000</t>
+          <t>2024-03-07T03:05:00.000</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>458</v>
+        <v>63</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-03-18T01:15:30.000</t>
+          <t>2024-03-07T02:02:00.000</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35040000</v>
+        <v>1.27</v>
       </c>
       <c r="C6" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-03-17T13:54:30.000</t>
+          <t>2024-03-05T18:31:30.000</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>477</v>
+        <v>73</v>
       </c>
       <c r="G6" t="n">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>584</v>
+        <v>76</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-03-17T04:10:00.000</t>
+          <t>2024-03-05T17:15:30.000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28380000</v>
+        <v>6.6</v>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-03-14T09:01:30.000</t>
+          <t>2024-03-05T07:39:30.000</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="G7" t="n">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="H7" t="n">
-        <v>473</v>
+        <v>396</v>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>2024-03-14T01:08:30.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>26100000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>95</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2024-03-13T08:54:00.000</t>
-        </is>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>366</v>
-      </c>
-      <c r="G8" t="n">
-        <v>69</v>
-      </c>
-      <c r="H8" t="n">
-        <v>435</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2024-03-13T01:39:00.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2024-03-12</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>22860000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>91</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2024-03-12T07:55:00.000</t>
-        </is>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>313</v>
-      </c>
-      <c r="G9" t="n">
-        <v>68</v>
-      </c>
-      <c r="H9" t="n">
-        <v>381</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2024-03-12T01:34:00.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>30360000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>86</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2024-03-11T08:58:00.000</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>428</v>
-      </c>
-      <c r="G10" t="n">
-        <v>78</v>
-      </c>
-      <c r="H10" t="n">
-        <v>506</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2024-03-11T00:31:30.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-03-10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>20760000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>90</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024-03-10T12:14:00.000</t>
-        </is>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>285</v>
-      </c>
-      <c r="G11" t="n">
-        <v>61</v>
-      </c>
-      <c r="H11" t="n">
-        <v>346</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2024-03-10T06:28:00.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27000000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>92</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2024-03-08T08:02:00.000</t>
-        </is>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>381</v>
-      </c>
-      <c r="G12" t="n">
-        <v>69</v>
-      </c>
-      <c r="H12" t="n">
-        <v>450</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2024-03-08T00:31:30.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-03-07</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15780000</v>
-      </c>
-      <c r="C13" t="n">
-        <v>84</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2024-03-07T08:46:00.000</t>
-        </is>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>218</v>
-      </c>
-      <c r="G13" t="n">
-        <v>45</v>
-      </c>
-      <c r="H13" t="n">
-        <v>263</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2024-03-07T04:22:30.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024-03-07</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3780000</v>
-      </c>
-      <c r="C14" t="n">
-        <v>95</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2024-03-07T03:05:00.000</t>
-        </is>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>60</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>63</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2024-03-07T02:02:00.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-03-05</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4560000</v>
-      </c>
-      <c r="C15" t="n">
-        <v>96</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2024-03-05T18:31:30.000</t>
-        </is>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>73</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>76</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2024-03-05T17:15:30.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024-03-05</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>23760000</v>
-      </c>
-      <c r="C16" t="n">
-        <v>88</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2024-03-05T07:39:30.000</t>
-        </is>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>343</v>
-      </c>
-      <c r="G16" t="n">
-        <v>53</v>
-      </c>
-      <c r="H16" t="n">
-        <v>396</v>
-      </c>
-      <c r="I16" t="inlineStr">
         <is>
           <t>2024-03-05T01:03:00.000</t>
         </is>
